--- a/experiments/capital/bert-base-uncased_15/42/incorrect_predictions.xlsx
+++ b/experiments/capital/bert-base-uncased_15/42/incorrect_predictions.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E21"/>
+  <dimension ref="A1:E27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -462,21 +462,21 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Aircraft ActiveTrack available at max speed . When exceeding nnn, Obstacle Avoidance is not available .</t>
+          <t>Abnormal compass function or GPS signal detected . Aircraft switched to ATTI mode .</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>When exceeding nnn, Obstacle Avoidance is not available</t>
+          <t>Abnormal compass function or GPS signal detected</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>7-14</t>
+          <t>0-6</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -487,21 +487,21 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Aircraft ActiveTrack available at max speed . When exceeding nnn, Obstacle Avoidance is not available .</t>
+          <t>Abnormal compass function or GPS signal detected . Aircraft switched to ATTI mode .</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>When exceeding nnn,</t>
+          <t>GPS signal detected</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>7-9</t>
+          <t>4-6</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -512,46 +512,46 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Aircraft ActiveTrack available at max speed . When exceeding nnn, Obstacle Avoidance is not available .</t>
+          <t>Aircraft ActiveTrack available at max speed . Obstacle Avoidance is not available .</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Obstacle Avoidance is not available</t>
+          <t>Aircraft ActiveTrack available at max speed</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>10-14</t>
+          <t>0-5</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>Missing</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Aircraft is close to the Home Point . Initiating Return to Home will now trigger Auto Landing .</t>
+          <t>Aircraft ActiveTrack available at max speed . Obstacle Avoidance is not available .</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Aircraft is close to the Home Point</t>
+          <t>Obstacle Avoidance is not available</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0-6</t>
+          <t>7-11</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -562,21 +562,21 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Approaching a No-Fly Zone . RTH may be affected . Fly with caution .</t>
+          <t>Aircraft ActiveTrack available at max speed . When exceeding nnn, Obstacle Avoidance is not available .</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>RTH may be affected</t>
+          <t>When exceeding nnn, Obstacle Avoidance is not available</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>5-8</t>
+          <t>7-14</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -587,96 +587,96 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>31</v>
+        <v>4</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Battery power limit will automatically reduce the aircraft's mobility to ensure flight safety .</t>
+          <t>Aircraft ActiveTrack available at max speed . When exceeding nnn, Obstacle Avoidance is not available .</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Battery power limit will automatically reduce the aircraft's mobility to ensure flight safety</t>
+          <t>When exceeding nnn,</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0-12</t>
+          <t>7-9</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Missing</t>
+          <t>False</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>66</v>
+        <v>4</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Downlink data connection lost for nnn seconds .</t>
+          <t>Aircraft ActiveTrack available at max speed . When exceeding nnn, Obstacle Avoidance is not available .</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Downlink data connection lost for nnn seconds</t>
+          <t>Obstacle Avoidance is not available</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0-6</t>
+          <t>10-14</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Missing</t>
+          <t>False</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>66</v>
+        <v>12</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Downlink data connection lost for nnn seconds .</t>
+          <t>Aircraft GPS signal too weak . Home Point not updated .</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Downlink data connection lost for nnn</t>
+          <t>Home Point not updated</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>0-5</t>
+          <t>6-9</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>Missing</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>76</v>
+        <v>15</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>During Smart Track, you can control lens zoom within a certain limit .</t>
+          <t>Aircraft is close to the Home Point . Initiating Return to Home will now trigger Auto Landing .</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>During Smart Track, you can control lens zoom within a certain limit</t>
+          <t>Aircraft is close to the Home Point</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>0-11</t>
+          <t>0-6</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -687,46 +687,46 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>76</v>
+        <v>29</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>During Smart Track, you can control lens zoom within a certain limit .</t>
+          <t>Another aircraft is dangerously close , please descend to a safer altitude .</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>During Smart Track,</t>
+          <t>Another aircraft is dangerously close</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>0-4</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>Missing</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>83</v>
+        <v>44</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Failed to lower or pack up landing gear . Take care of your gimbal when landing .</t>
+          <t>Cancel Return-to-Home Failed .</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Failed to lower or pack up landing gear</t>
+          <t>Cancel Return-to-Home Failed</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>0-7</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -737,21 +737,21 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>84</v>
+        <v>48</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Flight control mode error , cannot start recording QuickShot .</t>
+          <t>Check whether propellers are installed correctly . If the propellers are installed correctly and the aircraft still cannot takeoff, a motor error may exist . Contact DJI Support for assistance .</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>cannot start recording QuickShot</t>
+          <t>If the propellers are installed correctly and the aircraft still cannot takeoff, a motor error may exist</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>5-8</t>
+          <t>7-23</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -762,71 +762,71 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>89</v>
+        <v>48</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) . Fly with caution .</t>
+          <t>Check whether propellers are installed correctly . If the propellers are installed correctly and the aircraft still cannot takeoff, a motor error may exist . Contact DJI Support for assistance .</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant)</t>
+          <t>If the propellers are installed correctly and the aircraft still cannot takeoff,</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>0-13</t>
+          <t>7-18</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Missing</t>
+          <t>False</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>89</v>
+        <v>50</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) . Fly with caution .</t>
+          <t>Compass abnormal . Solution: 1. Ensure there are no magnets or metal objects near the aircraft . The ground or walls may contain metal . Move away from sources of interference before attempting flight . 2. Calibrate Compass Before Takeoff .</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>GEO: You are in a Warning Zone (Airport</t>
+          <t>2. Calibrate Compass Before Takeoff</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>0-7</t>
+          <t>35-39</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>Missing</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>109</v>
+        <v>81</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Landing Protection Activated . Aircraft will decelerate during landing .</t>
+          <t>Extra payload detected . Return aircraft to an area nearby the home point promptly and fly in a wind-free environment to ensure flight safety .</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Aircraft will decelerate during landing</t>
+          <t>Return aircraft to an area nearby the home point promptly and fly in a wind-free environment to ensure flight safety</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>4-8</t>
+          <t>4-23</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -837,21 +837,21 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>118</v>
+        <v>91</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Motor speed error . Land or return to home promptly . After powering off the aircraft, replace the propeller on the beeping ESC . If the issue persists, contact DJI Support .</t>
+          <t>GEO Zone Info: The target area is in an Altitude Zone . Flight altitude restricted to nnn .</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>After powering off the aircraft, replace the propeller on the beeping ESC</t>
+          <t>GEO Zone Info: The target area is in an Altitude Zone</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>11-22</t>
+          <t>0-10</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -862,21 +862,21 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>118</v>
+        <v>91</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Motor speed error . Land or return to home promptly . After powering off the aircraft, replace the propeller on the beeping ESC . If the issue persists, contact DJI Support .</t>
+          <t>GEO Zone Info: The target area is in an Altitude Zone . Flight altitude restricted to nnn .</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>After powering off the aircraft, replace the propeller on the beeping</t>
+          <t>GEO Zone Info:</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>11-21</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -887,46 +887,46 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>163</v>
+        <v>91</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Warning: Motor Overloaded . Aircraft will decelerate to ensure safety .</t>
+          <t>GEO Zone Info: The target area is in an Altitude Zone . Flight altitude restricted to nnn .</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Aircraft will decelerate to ensure safety</t>
+          <t>The target area is in an Altitude Zone</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>4-9</t>
+          <t>3-10</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Missing</t>
+          <t>False</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>170</v>
+        <v>99</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Your aircraft has entered a Warning Zone (Class D) . Please fly with caution .</t>
+          <t>GPS signal low . Aircraft unable to auto hover and takeoff restricted . Move to environment with adequate light . Unlocking takeoff restrictions not recommended .</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Your aircraft has entered a Warning Zone (Class D)</t>
+          <t>Unlocking takeoff restrictions not recommended</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>0-8</t>
+          <t>20-24</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -937,26 +937,176 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>170</v>
+        <v>104</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Your aircraft has entered a Warning Zone (Class D) . Please fly with caution .</t>
+          <t>Home Point Recorded , Return-to-Home Altitude : 98FT .</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Your aircraft has entered a Warning Zone (Class</t>
+          <t>Home Point Recorded</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>0-7</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>Missing</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>112</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Incompatible firmware version . Go to Profile &gt; Settings to update firmware .</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Go to Profile &gt; Settings to update firmware</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>4-11</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Missing</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>122</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Max Altitude Approached . Wait for the GPS satellite signal recovery before ascend .</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Wait for the GPS satellite signal recovery before ascend</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>4-12</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Missing</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>123</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Motor Obstructed . Propulsion output is limited to ensure the health of the battery .</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Propulsion output is limited to ensure the health of the battery</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>3-13</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>Missing</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>134</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Propeller rotating too fast . Wind resistance affected . Return to home and land promptly . Check whether propeller on beeping ESC is warped or damaged .</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Check whether propeller on beeping ESC is warped or damaged</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>16-25</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>Missing</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>141</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Remote controller signal weak . Adjust remote controller antennas .</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Adjust remote controller antennas</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>5-8</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>Missing</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>142</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>RTH Altitude : 98FT . Data Recorder File Index is 1 .</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Data Recorder File Index is 1</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>5-10</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>Missing</t>
         </is>
       </c>
     </row>
